--- a/AAII_Financials/Quarterly/ATEK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATEK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
   <si>
     <t>ATEK</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,43 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,8 +711,11 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -739,8 +743,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,8 +775,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,8 +823,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +885,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +917,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +949,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,25 +962,26 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+      <c r="H17" s="3">
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -965,8 +992,11 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -974,16 +1004,16 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+      <c r="H18" s="3">
+        <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -994,8 +1024,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,8 +1040,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1024,8 +1058,8 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1036,8 +1070,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1065,8 +1102,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,25 +1134,28 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+      <c r="H23" s="3">
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1123,8 +1166,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1134,8 +1180,8 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1152,8 +1198,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,25 +1230,28 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="H26" s="3">
+        <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1210,25 +1262,28 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="H27" s="3">
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1239,8 +1294,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,8 +1422,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1372,8 +1442,8 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1384,25 +1454,28 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="H33" s="3">
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1486,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,25 +1518,28 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="H35" s="3">
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1471,31 +1550,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1587,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,20 +1617,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1500</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1647,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,19 +1679,22 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1618,8 +1711,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,8 +1743,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1659,10 +1758,10 @@
         <v>300</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1676,22 +1775,25 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1900</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+      <c r="G46" s="3">
+        <v>0</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1705,19 +1807,22 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>256300</v>
+        <v>256700</v>
       </c>
       <c r="E47" s="3">
         <v>256300</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="3">
+        <v>256300</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1734,8 +1839,11 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1763,8 +1871,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1792,8 +1903,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,22 +1967,25 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1879,8 +1999,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,22 +2031,25 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>257800</v>
+      </c>
+      <c r="E54" s="3">
         <v>257700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>258400</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+      <c r="G54" s="3">
+        <v>0</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1937,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,8 +2093,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1972,13 +2103,13 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1992,8 +2123,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2021,22 +2155,25 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2050,22 +2187,25 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
         <v>300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+      <c r="G60" s="3">
+        <v>0</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2079,8 +2219,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2108,8 +2251,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2119,8 +2265,8 @@
       <c r="E62" s="3">
         <v>9000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="3">
+        <v>9000</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,22 +2379,25 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E66" s="3">
         <v>9200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9700</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+      <c r="G66" s="3">
+        <v>0</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2253,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2489,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,8 +2553,11 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2391,13 +2565,13 @@
         <v>-7900</v>
       </c>
       <c r="E72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7500</v>
       </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+      <c r="G72" s="3">
+        <v>0</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,22 +2681,25 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>248400</v>
       </c>
       <c r="E76" s="3">
+        <v>248400</v>
+      </c>
+      <c r="F76" s="3">
         <v>248800</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+      <c r="G76" s="3">
+        <v>0</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,31 +2745,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,25 +2782,28 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="H81" s="3">
+        <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2619,8 +2814,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,8 +2830,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2661,8 +2860,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,19 +3020,22 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+      <c r="F89" s="3">
+        <v>0</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2835,8 +3052,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,8 +3068,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2877,8 +3098,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,8 +3162,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2964,8 +3194,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,8 +3336,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3122,8 +3368,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,20 +3400,23 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>700</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F102" s="3">
         <v>1500</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,6 +3430,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ATEK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATEK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
   <si>
     <t>ATEK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,8 +715,11 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -746,8 +750,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -778,8 +785,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,8 +820,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,8 +837,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -856,8 +870,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,8 +905,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,8 +940,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -952,8 +975,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,8 +989,9 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -972,19 +999,19 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -995,8 +1022,11 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1004,19 +1034,19 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1027,8 +1057,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,8 +1074,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1050,7 +1084,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1061,8 +1095,8 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1073,8 +1107,11 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1105,8 +1142,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1137,28 +1177,31 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1169,13 +1212,16 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1183,8 +1229,8 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1201,8 +1247,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,28 +1282,31 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1265,28 +1317,31 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1297,8 +1352,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1387,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1422,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1457,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,8 +1492,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1434,7 +1504,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1445,8 +1515,8 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1457,28 +1527,31 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1489,8 +1562,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,28 +1597,31 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1553,34 +1632,37 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +1672,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1689,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,23 +1704,24 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1500</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,8 +1737,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1682,22 +1772,25 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1714,8 +1807,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1746,8 +1842,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1761,10 +1860,10 @@
         <v>300</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1778,25 +1877,28 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1900</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+      <c r="H46" s="3">
+        <v>0</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1810,22 +1912,25 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>257800</v>
+      </c>
+      <c r="E47" s="3">
         <v>256700</v>
-      </c>
-      <c r="E47" s="3">
-        <v>256300</v>
       </c>
       <c r="F47" s="3">
         <v>256300</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>256300</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1842,8 +1947,11 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1874,8 +1982,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1906,8 +2017,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2052,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,8 +2087,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1979,16 +2099,16 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2002,8 +2122,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,25 +2157,28 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>258700</v>
+      </c>
+      <c r="E54" s="3">
         <v>257800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>257700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>258400</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+      <c r="H54" s="3">
+        <v>0</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2066,8 +2192,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2209,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,25 +2224,26 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2126,8 +2257,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2158,25 +2292,28 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2190,25 +2327,28 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+      <c r="H60" s="3">
+        <v>0</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2222,8 +2362,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2254,8 +2397,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2268,8 +2414,8 @@
       <c r="F62" s="3">
         <v>9000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>9000</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2286,8 +2432,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2467,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2502,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,25 +2537,28 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E66" s="3">
         <v>9400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9700</v>
       </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+      <c r="H66" s="3">
+        <v>0</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2414,8 +2572,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2589,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2622,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2657,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2524,8 +2692,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,25 +2727,28 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7900</v>
+        <v>-8300</v>
       </c>
       <c r="E72" s="3">
         <v>-7900</v>
       </c>
       <c r="F72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="G72" s="3">
         <v>-7500</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+      <c r="H72" s="3">
+        <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2588,8 +2762,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2797,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +2832,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,25 +2867,28 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>248400</v>
+        <v>249000</v>
       </c>
       <c r="E76" s="3">
         <v>248400</v>
       </c>
       <c r="F76" s="3">
+        <v>248400</v>
+      </c>
+      <c r="G76" s="3">
         <v>248800</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+      <c r="H76" s="3">
+        <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2716,8 +2902,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,34 +2937,37 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2785,28 +2977,31 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2817,8 +3012,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,8 +3029,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2863,8 +3062,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3097,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3132,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3167,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3202,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,22 +3237,25 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+      <c r="G89" s="3">
+        <v>0</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3055,8 +3272,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,8 +3289,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3101,8 +3322,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3357,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,8 +3392,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3197,8 +3427,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3444,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3477,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3512,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3547,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,8 +3582,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3371,8 +3617,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3403,23 +3652,26 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1500</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3433,6 +3685,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ATEK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATEK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
   <si>
     <t>ATEK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,50 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -718,8 +718,11 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -753,8 +756,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -788,8 +794,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,8 +832,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,8 +886,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,8 +924,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,8 +962,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1000,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,31 +1015,32 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1025,8 +1051,11 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1037,19 +1066,19 @@
         <v>-300</v>
       </c>
       <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1060,8 +1089,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,8 +1107,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1084,11 +1117,11 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1098,8 +1131,8 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1110,8 +1143,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1145,8 +1181,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1180,31 +1219,34 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>800</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1215,25 +1257,28 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1250,8 +1295,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,31 +1333,34 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1320,31 +1371,34 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1355,8 +1409,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1447,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1485,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1523,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,8 +1561,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1504,11 +1573,11 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1518,8 +1587,8 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1530,31 +1599,34 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1565,8 +1637,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,31 +1675,34 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1635,37 +1713,40 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1675,8 +1756,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1774,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,26 +1790,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1500</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,8 +1826,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,25 +1864,28 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1810,8 +1902,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1845,8 +1940,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1863,10 +1961,10 @@
         <v>300</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1880,28 +1978,31 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1900</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+      <c r="I46" s="3">
+        <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1915,25 +2016,28 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E47" s="3">
         <v>257800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>256700</v>
-      </c>
-      <c r="F47" s="3">
-        <v>256300</v>
       </c>
       <c r="G47" s="3">
         <v>256300</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>256300</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1950,8 +2054,11 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1985,8 +2092,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2130,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2168,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,28 +2206,31 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
       </c>
       <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2125,8 +2244,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,28 +2282,31 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>260700</v>
+      </c>
+      <c r="E54" s="3">
         <v>258700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>257800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>257700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>258400</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+      <c r="I54" s="3">
+        <v>0</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2195,8 +2320,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2338,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,28 +2354,29 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2260,8 +2390,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2295,28 +2428,31 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2330,28 +2466,31 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+      <c r="I60" s="3">
+        <v>0</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2365,8 +2504,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2400,8 +2542,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2417,8 +2562,8 @@
       <c r="G62" s="3">
         <v>9000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>9000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2435,8 +2580,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2618,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2656,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,28 +2694,31 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E66" s="3">
         <v>9700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9700</v>
       </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+      <c r="I66" s="3">
+        <v>0</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2575,8 +2732,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2750,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2786,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2824,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2695,8 +2862,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,28 +2900,31 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8300</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-7900</v>
       </c>
       <c r="F72" s="3">
         <v>-7900</v>
       </c>
       <c r="G72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="H72" s="3">
         <v>-7500</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2765,8 +2938,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2976,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3014,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,28 +3052,31 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>250200</v>
+      </c>
+      <c r="E76" s="3">
         <v>249000</v>
-      </c>
-      <c r="E76" s="3">
-        <v>248400</v>
       </c>
       <c r="F76" s="3">
         <v>248400</v>
       </c>
       <c r="G76" s="3">
+        <v>248400</v>
+      </c>
+      <c r="H76" s="3">
         <v>248800</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2905,8 +3090,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,37 +3128,40 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2980,31 +3171,34 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3015,8 +3209,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3227,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3065,8 +3263,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3301,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3339,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3377,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3415,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,25 +3453,28 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3275,8 +3491,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,8 +3509,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3325,8 +3545,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3583,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,8 +3621,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3430,8 +3659,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3677,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3713,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3751,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3789,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,8 +3827,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3620,8 +3865,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3655,26 +3903,29 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1500</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3688,6 +3939,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ATEK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATEK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
   <si>
     <t>ATEK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,72 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -759,8 +767,14 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,8 +811,14 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,8 +855,14 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +877,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,8 +917,14 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +961,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,8 +1005,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1049,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,37 +1068,39 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
@@ -1054,8 +1108,14 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1063,28 +1123,28 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
@@ -1092,8 +1152,14 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,8 +1174,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1117,28 +1185,28 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1146,19 +1214,25 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1700</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1184,8 +1258,14 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1222,37 +1302,43 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F23" s="3">
         <v>1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
@@ -1260,31 +1346,37 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>600</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1298,8 +1390,14 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,37 +1434,43 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F26" s="3">
         <v>1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
@@ -1374,37 +1478,43 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F27" s="3">
         <v>1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
@@ -1412,8 +1522,14 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1566,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1610,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1654,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,8 +1698,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1573,28 +1713,28 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1602,37 +1742,43 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F33" s="3">
         <v>1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
@@ -1640,8 +1786,14 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,37 +1830,43 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F35" s="3">
         <v>1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
@@ -1716,51 +1874,63 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1945,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,32 +1963,34 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1500</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1829,8 +2003,14 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1867,31 +2047,37 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1905,8 +2091,14 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1943,16 +2135,22 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
@@ -1964,13 +2162,13 @@
         <v>300</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
@@ -1981,34 +2179,40 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>500</v>
+      </c>
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1900</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
+      <c r="K46" s="3">
+        <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
@@ -2019,32 +2223,38 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>262400</v>
+      </c>
+      <c r="F47" s="3">
         <v>260000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>257800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>256700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>256300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>256300</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2057,8 +2267,14 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2095,8 +2311,14 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2133,8 +2355,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2399,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,34 +2443,40 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2247,8 +2487,14 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,34 +2531,40 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>262900</v>
+      </c>
+      <c r="F54" s="3">
         <v>260700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>258700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>257800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>257700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>258400</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
+      <c r="K54" s="3">
+        <v>0</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
@@ -2323,8 +2575,14 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2597,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,34 +2615,36 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -2393,8 +2655,14 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2431,34 +2699,40 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
@@ -2469,34 +2743,40 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
+      <c r="K60" s="3">
+        <v>0</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
@@ -2507,8 +2787,14 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2545,8 +2831,14 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2565,11 +2857,11 @@
       <c r="H62" s="3">
         <v>9000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>9000</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2583,8 +2875,14 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2919,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2963,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,34 +3007,40 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F66" s="3">
         <v>10500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>9400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>9700</v>
       </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
+      <c r="K66" s="3">
+        <v>0</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
@@ -2735,8 +3051,14 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +3073,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +3113,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +3157,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2865,8 +3201,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,34 +3245,40 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-8300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-7900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-7900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-7500</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
@@ -2941,8 +3289,14 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3333,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3377,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,34 +3421,40 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>251900</v>
+      </c>
+      <c r="F76" s="3">
         <v>250200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>249000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>248400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>248400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>248800</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
@@ -3093,8 +3465,14 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,80 +3509,92 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F81" s="3">
         <v>1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
@@ -3212,8 +3602,14 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,8 +3624,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3266,8 +3664,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3708,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3752,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3796,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3840,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,31 +3884,37 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3494,8 +3928,14 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,8 +3950,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3548,8 +3990,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +4034,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,31 +4078,37 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>241900</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3662,8 +4122,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +4144,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +4184,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +4228,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4272,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,8 +4316,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3868,8 +4360,14 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3906,32 +4404,38 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-200</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1500</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3942,6 +4446,12 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
